--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.2359572012166</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H2">
-        <v>39.2359572012166</v>
+        <v>126.004271</v>
       </c>
       <c r="I2">
-        <v>0.949234654564911</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J2">
-        <v>0.949234654564911</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.690907399947</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N2">
-        <v>169.690907399947</v>
+        <v>590.546372</v>
       </c>
       <c r="O2">
-        <v>0.5547945231140841</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P2">
-        <v>0.5547945231140841</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q2">
-        <v>6657.98518017993</v>
+        <v>8267.929455061647</v>
       </c>
       <c r="R2">
-        <v>6657.98518017993</v>
+        <v>74411.36509555482</v>
       </c>
       <c r="S2">
-        <v>0.5266301875027021</v>
+        <v>0.5594122253277756</v>
       </c>
       <c r="T2">
-        <v>0.5266301875027021</v>
+        <v>0.5663728116891273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.2359572012166</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H3">
-        <v>39.2359572012166</v>
+        <v>126.004271</v>
       </c>
       <c r="I3">
-        <v>0.949234654564911</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J3">
-        <v>0.949234654564911</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>54.6034433841246</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N3">
-        <v>54.6034433841246</v>
+        <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.1785227729455335</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P3">
-        <v>0.1785227729455335</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q3">
-        <v>2142.418367658567</v>
+        <v>12.17891481255589</v>
       </c>
       <c r="R3">
-        <v>2142.418367658567</v>
+        <v>109.610233313003</v>
       </c>
       <c r="S3">
-        <v>0.1694600027089236</v>
+        <v>0.0008240314427451172</v>
       </c>
       <c r="T3">
-        <v>0.1694600027089236</v>
+        <v>0.0008342846009029247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.2359572012166</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H4">
-        <v>39.2359572012166</v>
+        <v>126.004271</v>
       </c>
       <c r="I4">
-        <v>0.949234654564911</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J4">
-        <v>0.949234654564911</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.3133188485382</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N4">
-        <v>77.3133188485382</v>
+        <v>163.895484</v>
       </c>
       <c r="O4">
-        <v>0.2527713860345311</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P4">
-        <v>0.2527713860345311</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q4">
-        <v>3033.462069425258</v>
+        <v>2294.614553512462</v>
       </c>
       <c r="R4">
-        <v>3033.462069425258</v>
+        <v>20651.53098161216</v>
       </c>
       <c r="S4">
-        <v>0.2399393593063819</v>
+        <v>0.1552547636777503</v>
       </c>
       <c r="T4">
-        <v>0.2399393593063819</v>
+        <v>0.1571865487579871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.2359572012166</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H5">
-        <v>39.2359572012166</v>
+        <v>126.004271</v>
       </c>
       <c r="I5">
-        <v>0.949234654564911</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J5">
-        <v>0.949234654564911</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.25495216737674</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N5">
-        <v>4.25495216737674</v>
+        <v>232.883003</v>
       </c>
       <c r="O5">
-        <v>0.01391131790585118</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P5">
-        <v>0.01391131790585118</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q5">
-        <v>166.9471211324176</v>
+        <v>3260.472557922869</v>
       </c>
       <c r="R5">
-        <v>166.9471211324176</v>
+        <v>29344.25302130582</v>
       </c>
       <c r="S5">
-        <v>0.0132051050469033</v>
+        <v>0.220605197366694</v>
       </c>
       <c r="T5">
-        <v>0.0132051050469033</v>
+        <v>0.2233501168706147</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0706785952991</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H6">
-        <v>1.0706785952991</v>
+        <v>126.004271</v>
       </c>
       <c r="I6">
-        <v>0.02590290384268418</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J6">
-        <v>0.02590290384268418</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.690907399947</v>
+        <v>4.352083</v>
       </c>
       <c r="N6">
-        <v>169.690907399947</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O6">
-        <v>0.5547945231140841</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P6">
-        <v>0.5547945231140841</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q6">
-        <v>181.6844223700049</v>
+        <v>182.7936819154977</v>
       </c>
       <c r="R6">
-        <v>181.6844223700049</v>
+        <v>1096.762091492986</v>
       </c>
       <c r="S6">
-        <v>0.01437078918467194</v>
+        <v>0.0123679115710892</v>
       </c>
       <c r="T6">
-        <v>0.01437078918467194</v>
+        <v>0.008347867677407229</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0706785952991</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H7">
-        <v>1.0706785952991</v>
+        <v>3.519487</v>
       </c>
       <c r="I7">
-        <v>0.02590290384268418</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J7">
-        <v>0.02590290384268418</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6034433841246</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N7">
-        <v>54.6034433841246</v>
+        <v>590.546372</v>
       </c>
       <c r="O7">
-        <v>0.1785227729455335</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P7">
-        <v>0.1785227729455335</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q7">
-        <v>58.46273806100847</v>
+        <v>230.9355865723515</v>
       </c>
       <c r="R7">
-        <v>58.46273806100847</v>
+        <v>2078.420279151164</v>
       </c>
       <c r="S7">
-        <v>0.004624258221337495</v>
+        <v>0.01562521682048521</v>
       </c>
       <c r="T7">
-        <v>0.004624258221337495</v>
+        <v>0.01581963636687626</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.0706785952991</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H8">
-        <v>1.0706785952991</v>
+        <v>3.519487</v>
       </c>
       <c r="I8">
-        <v>0.02590290384268418</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J8">
-        <v>0.02590290384268418</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>77.3133188485382</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N8">
-        <v>77.3133188485382</v>
+        <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.2527713860345311</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P8">
-        <v>0.2527713860345311</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q8">
-        <v>82.77771562266432</v>
+        <v>0.3401752338767777</v>
       </c>
       <c r="R8">
-        <v>82.77771562266432</v>
+        <v>3.061577104891</v>
       </c>
       <c r="S8">
-        <v>0.006547512906634462</v>
+        <v>2.301642577125567E-05</v>
       </c>
       <c r="T8">
-        <v>0.006547512906634462</v>
+        <v>2.330281175292885E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.0706785952991</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H9">
-        <v>1.0706785952991</v>
+        <v>3.519487</v>
       </c>
       <c r="I9">
-        <v>0.02590290384268418</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J9">
-        <v>0.02590290384268418</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.25495216737674</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N9">
-        <v>4.25495216737674</v>
+        <v>163.895484</v>
       </c>
       <c r="O9">
-        <v>0.01391131790585118</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P9">
-        <v>0.01391131790585118</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q9">
-        <v>4.55568620963179</v>
+        <v>64.09200281074531</v>
       </c>
       <c r="R9">
-        <v>4.55568620963179</v>
+        <v>576.8280252967079</v>
       </c>
       <c r="S9">
-        <v>0.0003603435300402737</v>
+        <v>0.00433649683550738</v>
       </c>
       <c r="T9">
-        <v>0.0003603435300402737</v>
+        <v>0.004390454470615537</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.02767180859455</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H10">
-        <v>1.02767180859455</v>
+        <v>3.519487</v>
       </c>
       <c r="I10">
-        <v>0.02486244159240487</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J10">
-        <v>0.02486244159240487</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.690907399947</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N10">
-        <v>169.690907399947</v>
+        <v>232.883003</v>
       </c>
       <c r="O10">
-        <v>0.5547945231140841</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P10">
-        <v>0.5547945231140841</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q10">
-        <v>174.3865617097538</v>
+        <v>91.06985573105123</v>
       </c>
       <c r="R10">
-        <v>174.3865617097538</v>
+        <v>819.6287015794611</v>
       </c>
       <c r="S10">
-        <v>0.01379354642671003</v>
+        <v>0.006161831802229256</v>
       </c>
       <c r="T10">
-        <v>0.01379354642671003</v>
+        <v>0.006238501493132794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.02767180859455</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H11">
-        <v>1.02767180859455</v>
+        <v>3.519487</v>
       </c>
       <c r="I11">
-        <v>0.02486244159240487</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J11">
-        <v>0.02486244159240487</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.6034433841246</v>
+        <v>4.352083</v>
       </c>
       <c r="N11">
-        <v>54.6034433841246</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O11">
-        <v>0.1785227729455335</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P11">
-        <v>0.1785227729455335</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q11">
-        <v>56.11441941805344</v>
+        <v>5.105699847140333</v>
       </c>
       <c r="R11">
-        <v>56.11441941805344</v>
+        <v>30.634199082842</v>
       </c>
       <c r="S11">
-        <v>0.004438512015272484</v>
+        <v>0.0003454541948946952</v>
       </c>
       <c r="T11">
-        <v>0.004438512015272484</v>
+        <v>0.0002331683802079609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.02767180859455</v>
+        <v>0.049176</v>
       </c>
       <c r="H12">
-        <v>1.02767180859455</v>
+        <v>0.147528</v>
       </c>
       <c r="I12">
-        <v>0.02486244159240487</v>
+        <v>0.001110478358944403</v>
       </c>
       <c r="J12">
-        <v>0.02486244159240487</v>
+        <v>0.001119408769334847</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>77.3133188485382</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N12">
-        <v>77.3133188485382</v>
+        <v>590.546372</v>
       </c>
       <c r="O12">
-        <v>0.2527713860345311</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P12">
-        <v>0.2527713860345311</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q12">
-        <v>79.45271820952436</v>
+        <v>9.680236129823999</v>
       </c>
       <c r="R12">
-        <v>79.45271820952436</v>
+        <v>87.12212516841601</v>
       </c>
       <c r="S12">
-        <v>0.006284513821514755</v>
+        <v>0.0006549695984365171</v>
       </c>
       <c r="T12">
-        <v>0.006284513821514755</v>
+        <v>0.0006631191744514247</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.049176</v>
+      </c>
+      <c r="H13">
+        <v>0.147528</v>
+      </c>
+      <c r="I13">
+        <v>0.001110478358944403</v>
+      </c>
+      <c r="J13">
+        <v>0.001119408769334847</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.869893</v>
+      </c>
+      <c r="O13">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P13">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q13">
+        <v>0.014259286056</v>
+      </c>
+      <c r="R13">
+        <v>0.128333574504</v>
+      </c>
+      <c r="S13">
+        <v>9.647903973453538E-07</v>
+      </c>
+      <c r="T13">
+        <v>9.767949738942315E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.049176</v>
+      </c>
+      <c r="H14">
+        <v>0.147528</v>
+      </c>
+      <c r="I14">
+        <v>0.001110478358944403</v>
+      </c>
+      <c r="J14">
+        <v>0.001119408769334847</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N14">
+        <v>163.895484</v>
+      </c>
+      <c r="O14">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P14">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q14">
+        <v>2.686574773727999</v>
+      </c>
+      <c r="R14">
+        <v>24.17917296355199</v>
+      </c>
+      <c r="S14">
+        <v>0.0001817749874196816</v>
+      </c>
+      <c r="T14">
+        <v>0.0001840367551125971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.049176</v>
+      </c>
+      <c r="H15">
+        <v>0.147528</v>
+      </c>
+      <c r="I15">
+        <v>0.001110478358944403</v>
+      </c>
+      <c r="J15">
+        <v>0.001119408769334847</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N15">
+        <v>232.883003</v>
+      </c>
+      <c r="O15">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P15">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q15">
+        <v>3.817418185176001</v>
+      </c>
+      <c r="R15">
+        <v>34.356763666584</v>
+      </c>
+      <c r="S15">
+        <v>0.0002582884159308665</v>
+      </c>
+      <c r="T15">
+        <v>0.0002615022156009938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.049176</v>
+      </c>
+      <c r="H16">
+        <v>0.147528</v>
+      </c>
+      <c r="I16">
+        <v>0.001110478358944403</v>
+      </c>
+      <c r="J16">
+        <v>0.001119408769334847</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.352083</v>
+      </c>
+      <c r="N16">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P16">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q16">
+        <v>0.214018033608</v>
+      </c>
+      <c r="R16">
+        <v>1.284108201648</v>
+      </c>
+      <c r="S16">
+        <v>1.448056675999218E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.773829195936809E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.0598565</v>
+      </c>
+      <c r="H17">
+        <v>2.119713</v>
+      </c>
+      <c r="I17">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J17">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N17">
+        <v>590.546372</v>
+      </c>
+      <c r="O17">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P17">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q17">
+        <v>208.631470305206</v>
+      </c>
+      <c r="R17">
+        <v>1251.788821831236</v>
+      </c>
+      <c r="S17">
+        <v>0.01411610920378503</v>
+      </c>
+      <c r="T17">
+        <v>0.009527834273046152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.0598565</v>
+      </c>
+      <c r="H18">
+        <v>2.119713</v>
+      </c>
+      <c r="I18">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J18">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.869893</v>
+      </c>
+      <c r="O18">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P18">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q18">
+        <v>0.3073205834515</v>
+      </c>
+      <c r="R18">
+        <v>1.843923500709</v>
+      </c>
+      <c r="S18">
+        <v>2.079346375801318E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.403479342564302E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.02767180859455</v>
-      </c>
-      <c r="H13">
-        <v>1.02767180859455</v>
-      </c>
-      <c r="I13">
-        <v>0.02486244159240487</v>
-      </c>
-      <c r="J13">
-        <v>0.02486244159240487</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.25495216737674</v>
-      </c>
-      <c r="N13">
-        <v>4.25495216737674</v>
-      </c>
-      <c r="O13">
-        <v>0.01391131790585118</v>
-      </c>
-      <c r="P13">
-        <v>0.01391131790585118</v>
-      </c>
-      <c r="Q13">
-        <v>4.372694389331355</v>
-      </c>
-      <c r="R13">
-        <v>4.372694389331355</v>
-      </c>
-      <c r="S13">
-        <v>0.000345869328907601</v>
-      </c>
-      <c r="T13">
-        <v>0.000345869328907601</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.0598565</v>
+      </c>
+      <c r="H19">
+        <v>2.119713</v>
+      </c>
+      <c r="I19">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J19">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N19">
+        <v>163.895484</v>
+      </c>
+      <c r="O19">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P19">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q19">
+        <v>57.90189801268199</v>
+      </c>
+      <c r="R19">
+        <v>347.411388076092</v>
+      </c>
+      <c r="S19">
+        <v>0.00391767126147242</v>
+      </c>
+      <c r="T19">
+        <v>0.002644278389797113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.0598565</v>
+      </c>
+      <c r="H20">
+        <v>2.119713</v>
+      </c>
+      <c r="I20">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J20">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N20">
+        <v>232.883003</v>
+      </c>
+      <c r="O20">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P20">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q20">
+        <v>82.27418815635652</v>
+      </c>
+      <c r="R20">
+        <v>493.6451289381391</v>
+      </c>
+      <c r="S20">
+        <v>0.005566712552851644</v>
+      </c>
+      <c r="T20">
+        <v>0.003757318244253493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.0598565</v>
+      </c>
+      <c r="H21">
+        <v>2.119713</v>
+      </c>
+      <c r="I21">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J21">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.352083</v>
+      </c>
+      <c r="N21">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P21">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q21">
+        <v>4.6125834560895</v>
+      </c>
+      <c r="R21">
+        <v>18.450333824358</v>
+      </c>
+      <c r="S21">
+        <v>0.000312089694246414</v>
+      </c>
+      <c r="T21">
+        <v>0.0001404324115178597</v>
       </c>
     </row>
   </sheetData>
